--- a/Money makers - QA.xlsx
+++ b/Money makers - QA.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13110"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main menu" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Front-end" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="61">
   <si>
     <t>Money makers - QA Documentation | Main menu</t>
   </si>
@@ -127,6 +127,78 @@
   </si>
   <si>
     <t>The game is started.</t>
+  </si>
+  <si>
+    <t>Money makers - QA Documentation | Front-end</t>
+  </si>
+  <si>
+    <t>Case test 5</t>
+  </si>
+  <si>
+    <t>The road load</t>
+  </si>
+  <si>
+    <t>When option 1 is selected, the road should build.</t>
+  </si>
+  <si>
+    <t>Road builds.</t>
+  </si>
+  <si>
+    <t>Case test 6</t>
+  </si>
+  <si>
+    <t>Rules load</t>
+  </si>
+  <si>
+    <t>When option 2 is selected, the rules text appeares.</t>
+  </si>
+  <si>
+    <t>Rules build.</t>
+  </si>
+  <si>
+    <t>Case test 7</t>
+  </si>
+  <si>
+    <t>End game load</t>
+  </si>
+  <si>
+    <t>When the user guess 3 answers wrong, the game ends.</t>
+  </si>
+  <si>
+    <t>Lifes go below 1.</t>
+  </si>
+  <si>
+    <t>"GAME OVER" screen is shown.</t>
+  </si>
+  <si>
+    <t>Case test 8</t>
+  </si>
+  <si>
+    <t>Forfeit load</t>
+  </si>
+  <si>
+    <t>When the user forfeits, the game ends.</t>
+  </si>
+  <si>
+    <t>The user forfeits.</t>
+  </si>
+  <si>
+    <t>The amount of money the user has collected is shown.</t>
+  </si>
+  <si>
+    <t>Case test 9</t>
+  </si>
+  <si>
+    <t>End game win load</t>
+  </si>
+  <si>
+    <t>When the user guesses all the answers right.</t>
+  </si>
+  <si>
+    <t>The questions are right without the lifes going below 1.</t>
+  </si>
+  <si>
+    <t>"CONGRATULATIONS" screen is presented to the user.</t>
   </si>
 </sst>
 </file>
@@ -233,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -406,7 +478,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -415,8 +487,313 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -424,126 +801,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right style="thick">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thick">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thick">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -552,11 +824,11 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -564,12 +836,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thick">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -580,7 +852,7 @@
       <left/>
       <right/>
       <top style="thick">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -590,313 +862,673 @@
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="thick">
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,60 +1824,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:O62"/>
+  <dimension ref="C1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="3:15">
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="3:15">
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="3:15" ht="15.75" thickBot="1">
       <c r="C4" s="1"/>
@@ -1263,36 +1895,36 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C7" s="1"/>
@@ -1310,97 +1942,97 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25" t="s">
+      <c r="I10" s="61"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="41" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="46" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="12" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="13" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C13" s="1"/>
@@ -1417,91 +2049,91 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="3:15" ht="15.75">
-      <c r="C14" s="52" t="s">
+    <row r="14" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C14" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="s">
+      <c r="D14" s="124"/>
+      <c r="E14" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="54" t="s">
+      <c r="F14" s="126"/>
+      <c r="G14" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56" t="s">
+      <c r="H14" s="126"/>
+      <c r="I14" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="57" t="s">
+      <c r="J14" s="124"/>
+      <c r="K14" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54" t="s">
+      <c r="L14" s="129"/>
+      <c r="M14" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="55"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="131"/>
     </row>
     <row r="15" spans="3:15" ht="15" customHeight="1">
-      <c r="C15" s="60">
+      <c r="C15" s="132">
         <v>1</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="66" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="72" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="77" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="78"/>
-      <c r="K15" s="72" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="73"/>
-      <c r="M15" s="83" t="s">
+      <c r="L15" s="17"/>
+      <c r="M15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="84"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="104"/>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="86"/>
-    </row>
-    <row r="17" spans="3:15">
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
-    </row>
-    <row r="18" spans="3:15">
+      <c r="C16" s="133"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="134"/>
+    </row>
+    <row r="17" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C17" s="135"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="114"/>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" thickTop="1">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1532,36 +2164,36 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
     </row>
     <row r="21" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
     </row>
     <row r="22" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C22" s="1"/>
@@ -1579,97 +2211,97 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="3:15">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="19"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="51"/>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="54"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28" t="s">
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25" t="s">
+      <c r="I25" s="61"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="59"/>
     </row>
     <row r="26" spans="3:15">
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="34" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="41" t="s">
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="46" t="s">
+      <c r="I26" s="35"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="48"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="39"/>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="51"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
     </row>
     <row r="28" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C28" s="1"/>
@@ -1686,91 +2318,91 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="3:15" ht="15.75">
-      <c r="C29" s="52" t="s">
+    <row r="29" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C29" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54" t="s">
+      <c r="D29" s="124"/>
+      <c r="E29" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="54" t="s">
+      <c r="F29" s="126"/>
+      <c r="G29" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56" t="s">
+      <c r="H29" s="126"/>
+      <c r="I29" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="57" t="s">
+      <c r="J29" s="124"/>
+      <c r="K29" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="54" t="s">
+      <c r="L29" s="129"/>
+      <c r="M29" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="59"/>
-      <c r="O29" s="55"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="131"/>
     </row>
     <row r="30" spans="3:15" ht="15" customHeight="1">
-      <c r="C30" s="60">
+      <c r="C30" s="132">
         <v>2</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="66" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="90" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="91"/>
-      <c r="I30" s="77" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="78"/>
-      <c r="K30" s="72" t="s">
+      <c r="J30" s="13"/>
+      <c r="K30" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="73"/>
-      <c r="M30" s="83" t="s">
+      <c r="L30" s="17"/>
+      <c r="M30" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="47"/>
-      <c r="O30" s="84"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="104"/>
     </row>
     <row r="31" spans="3:15">
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="86"/>
-    </row>
-    <row r="32" spans="3:15">
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="89"/>
-    </row>
-    <row r="33" spans="3:15">
+      <c r="C31" s="133"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="134"/>
+    </row>
+    <row r="32" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C32" s="135"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="114"/>
+    </row>
+    <row r="33" spans="3:15" ht="15.75" thickTop="1">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1801,36 +2433,36 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="13"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="45"/>
     </row>
     <row r="36" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="16"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="48"/>
     </row>
     <row r="37" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C37" s="1"/>
@@ -1848,97 +2480,97 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="19"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="51"/>
     </row>
     <row r="39" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="22"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="54"/>
     </row>
     <row r="40" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="56"/>
+      <c r="E40" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28" t="s">
+      <c r="F40" s="58"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25" t="s">
+      <c r="I40" s="61"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="59"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="34" t="s">
+      <c r="D41" s="25"/>
+      <c r="E41" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="41" t="s">
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="46" t="s">
+      <c r="I41" s="35"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="48"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="39"/>
     </row>
     <row r="42" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="51"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="42"/>
     </row>
     <row r="43" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C43" s="1"/>
@@ -1955,91 +2587,91 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="3:15" ht="15.75">
-      <c r="C44" s="52" t="s">
+    <row r="44" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C44" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54" t="s">
+      <c r="D44" s="124"/>
+      <c r="E44" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="55"/>
-      <c r="G44" s="54" t="s">
+      <c r="F44" s="126"/>
+      <c r="G44" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="56" t="s">
+      <c r="H44" s="126"/>
+      <c r="I44" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="53"/>
-      <c r="K44" s="57" t="s">
+      <c r="J44" s="124"/>
+      <c r="K44" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="58"/>
-      <c r="M44" s="54" t="s">
+      <c r="L44" s="129"/>
+      <c r="M44" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="59"/>
-      <c r="O44" s="55"/>
+      <c r="N44" s="130"/>
+      <c r="O44" s="131"/>
     </row>
     <row r="45" spans="3:15" ht="30" customHeight="1">
-      <c r="C45" s="60">
+      <c r="C45" s="132">
         <v>3</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="66" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="90" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="91"/>
-      <c r="I45" s="77" t="s">
+      <c r="H45" s="9"/>
+      <c r="I45" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J45" s="78"/>
-      <c r="K45" s="72" t="s">
+      <c r="J45" s="13"/>
+      <c r="K45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="73"/>
-      <c r="M45" s="83" t="s">
+      <c r="L45" s="17"/>
+      <c r="M45" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="47"/>
-      <c r="O45" s="84"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="104"/>
     </row>
     <row r="46" spans="3:15">
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="86"/>
-    </row>
-    <row r="47" spans="3:15">
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="89"/>
-    </row>
-    <row r="48" spans="3:15">
+      <c r="C46" s="133"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="134"/>
+    </row>
+    <row r="47" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C47" s="135"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="139"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="114"/>
+    </row>
+    <row r="48" spans="3:15" ht="15.75" thickTop="1">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2070,36 +2702,36 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="13"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="45"/>
     </row>
     <row r="51" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="16"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="48"/>
     </row>
     <row r="52" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C52" s="1"/>
@@ -2117,97 +2749,97 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="19"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="51"/>
     </row>
     <row r="54" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="22"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="54"/>
     </row>
     <row r="55" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25" t="s">
+      <c r="D55" s="56"/>
+      <c r="E55" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28" t="s">
+      <c r="F55" s="58"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="25" t="s">
+      <c r="I55" s="61"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="27"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="59"/>
     </row>
     <row r="56" spans="3:15">
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="34" t="s">
+      <c r="D56" s="25"/>
+      <c r="E56" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="41" t="s">
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="42"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="46" t="s">
+      <c r="I56" s="35"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="48"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="39"/>
     </row>
     <row r="57" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="51"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="42"/>
     </row>
     <row r="58" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C58" s="1"/>
@@ -2224,97 +2856,166 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="3:15" ht="15.75">
-      <c r="C59" s="52" t="s">
+    <row r="59" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C59" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="54" t="s">
+      <c r="D59" s="124"/>
+      <c r="E59" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="54" t="s">
+      <c r="F59" s="126"/>
+      <c r="G59" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="55"/>
-      <c r="I59" s="56" t="s">
+      <c r="H59" s="126"/>
+      <c r="I59" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="J59" s="53"/>
-      <c r="K59" s="57" t="s">
+      <c r="J59" s="124"/>
+      <c r="K59" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="L59" s="58"/>
-      <c r="M59" s="54" t="s">
+      <c r="L59" s="129"/>
+      <c r="M59" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="59"/>
-      <c r="O59" s="55"/>
+      <c r="N59" s="130"/>
+      <c r="O59" s="131"/>
     </row>
     <row r="60" spans="3:15" ht="15" customHeight="1">
-      <c r="C60" s="60">
+      <c r="C60" s="132">
         <v>4</v>
       </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="66" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="67"/>
-      <c r="G60" s="90" t="s">
+      <c r="F60" s="5"/>
+      <c r="G60" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H60" s="91"/>
-      <c r="I60" s="77" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J60" s="78"/>
-      <c r="K60" s="72" t="s">
+      <c r="J60" s="13"/>
+      <c r="K60" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L60" s="73"/>
-      <c r="M60" s="83" t="s">
+      <c r="L60" s="17"/>
+      <c r="M60" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N60" s="47"/>
-      <c r="O60" s="84"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="104"/>
     </row>
     <row r="61" spans="3:15">
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="86"/>
-    </row>
-    <row r="62" spans="3:15">
-      <c r="C62" s="64"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="89"/>
-    </row>
+      <c r="C61" s="133"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="134"/>
+    </row>
+    <row r="62" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C62" s="135"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="110"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="112"/>
+      <c r="N62" s="113"/>
+      <c r="O62" s="114"/>
+    </row>
+    <row r="63" spans="3:15" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="C60:D62"/>
-    <mergeCell ref="E60:F62"/>
-    <mergeCell ref="G60:H62"/>
-    <mergeCell ref="I60:J62"/>
-    <mergeCell ref="K60:L62"/>
+    <mergeCell ref="C1:O3"/>
+    <mergeCell ref="C5:O6"/>
+    <mergeCell ref="C8:O9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:G12"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="K11:O12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="C20:O21"/>
+    <mergeCell ref="C23:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="M30:O32"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:O27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="C30:D32"/>
+    <mergeCell ref="E30:F32"/>
+    <mergeCell ref="G30:H32"/>
+    <mergeCell ref="I30:J32"/>
+    <mergeCell ref="K30:L32"/>
+    <mergeCell ref="C35:O36"/>
+    <mergeCell ref="C38:O39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="M45:O47"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="K41:O42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="C45:D47"/>
+    <mergeCell ref="E45:F47"/>
+    <mergeCell ref="G45:H47"/>
+    <mergeCell ref="I45:J47"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="C50:O51"/>
+    <mergeCell ref="C53:O54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:O55"/>
     <mergeCell ref="M60:O62"/>
     <mergeCell ref="C56:D57"/>
     <mergeCell ref="E56:G57"/>
@@ -2326,56 +3027,1435 @@
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="M59:O59"/>
+    <mergeCell ref="C60:D62"/>
+    <mergeCell ref="E60:F62"/>
+    <mergeCell ref="G60:H62"/>
+    <mergeCell ref="I60:J62"/>
+    <mergeCell ref="K60:L62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:O74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C1" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="117"/>
+    </row>
+    <row r="2" spans="3:15">
+      <c r="C2" s="118"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="119"/>
+    </row>
+    <row r="3" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
+    </row>
+    <row r="4" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+    </row>
+    <row r="6" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C8" s="161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="163"/>
+    </row>
+    <row r="9" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C9" s="164"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="165"/>
+    </row>
+    <row r="10" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C10" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="158"/>
+      <c r="E10" s="159" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="158" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="167"/>
+    </row>
+    <row r="11" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C11" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="158"/>
+      <c r="E11" s="159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="168"/>
+    </row>
+    <row r="12" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C12" s="169"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="173"/>
+    </row>
+    <row r="13" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C14" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="126"/>
+      <c r="G14" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="124"/>
+      <c r="K14" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="129"/>
+      <c r="M14" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="130"/>
+      <c r="O14" s="131"/>
+    </row>
+    <row r="15" spans="3:15" ht="15" customHeight="1">
+      <c r="C15" s="132">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="75"/>
+      <c r="M15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="21"/>
+      <c r="O15" s="104"/>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" s="133"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="134"/>
+    </row>
+    <row r="17" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C17" s="135"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="114"/>
+    </row>
+    <row r="18" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C19" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="145"/>
+    </row>
+    <row r="20" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="148"/>
+    </row>
+    <row r="21" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C22" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="98"/>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" s="99"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="100"/>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="C24" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="79"/>
+      <c r="E24" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="71"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="81"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="102"/>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="104"/>
+    </row>
+    <row r="26" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="114"/>
+    </row>
+    <row r="27" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C28" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="126"/>
+      <c r="G28" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="126"/>
+      <c r="I28" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="124"/>
+      <c r="K28" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="129"/>
+      <c r="M28" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="130"/>
+      <c r="O28" s="131"/>
+    </row>
+    <row r="29" spans="3:15" ht="15" customHeight="1">
+      <c r="C29" s="132">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="75"/>
+      <c r="M29" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="104"/>
+    </row>
+    <row r="30" spans="3:15">
+      <c r="C30" s="133"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="134"/>
+    </row>
+    <row r="31" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C31" s="135"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="114"/>
+    </row>
+    <row r="32" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C33" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="45"/>
+    </row>
+    <row r="34" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="48"/>
+    </row>
+    <row r="35" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C36" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="98"/>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" s="99"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="100"/>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="71"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="81"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="102"/>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="C39" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="104"/>
+    </row>
+    <row r="40" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C40" s="105"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="114"/>
+    </row>
+    <row r="41" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C42" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="124"/>
+      <c r="E42" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="126"/>
+      <c r="G42" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="126"/>
+      <c r="I42" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="124"/>
+      <c r="K42" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="129"/>
+      <c r="M42" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="130"/>
+      <c r="O42" s="131"/>
+    </row>
+    <row r="43" spans="3:15" ht="30" customHeight="1">
+      <c r="C43" s="132">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="89"/>
+      <c r="M43" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="21"/>
+      <c r="O43" s="104"/>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" s="133"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="134"/>
+    </row>
+    <row r="45" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C45" s="135"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="114"/>
+    </row>
+    <row r="46" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C47" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
+    </row>
+    <row r="48" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="48"/>
+    </row>
+    <row r="49" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C50" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="97"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="97"/>
+      <c r="O50" s="98"/>
+    </row>
+    <row r="51" spans="3:15">
+      <c r="C51" s="99"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="100"/>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="79"/>
+      <c r="E52" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="71"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="81"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="102"/>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="C53" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="35"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="104"/>
+    </row>
+    <row r="54" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C54" s="105"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="113"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
+      <c r="O54" s="114"/>
+    </row>
+    <row r="55" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C56" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="124"/>
+      <c r="E56" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="126"/>
+      <c r="G56" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="126"/>
+      <c r="I56" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="124"/>
+      <c r="K56" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="129"/>
+      <c r="M56" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="130"/>
+      <c r="O56" s="131"/>
+    </row>
+    <row r="57" spans="3:15" ht="15" customHeight="1">
+      <c r="C57" s="132">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="85"/>
+      <c r="I57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" s="85"/>
+      <c r="M57" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="21"/>
+      <c r="O57" s="104"/>
+    </row>
+    <row r="58" spans="3:15">
+      <c r="C58" s="133"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="134"/>
+    </row>
+    <row r="59" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C59" s="135"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="149"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="149"/>
+      <c r="L59" s="150"/>
+      <c r="M59" s="112"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="114"/>
+    </row>
+    <row r="60" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C61" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="45"/>
+    </row>
+    <row r="62" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C62" s="46"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="48"/>
+    </row>
+    <row r="63" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C64" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
+      <c r="M64" s="97"/>
+      <c r="N64" s="97"/>
+      <c r="O64" s="98"/>
+    </row>
+    <row r="65" spans="3:15">
+      <c r="C65" s="99"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="100"/>
+    </row>
+    <row r="66" spans="3:15">
+      <c r="C66" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="79"/>
+      <c r="E66" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="71"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="81"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="102"/>
+    </row>
+    <row r="67" spans="3:15">
+      <c r="C67" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="29"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="35"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="104"/>
+    </row>
+    <row r="68" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C68" s="105"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="110"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="106"/>
+      <c r="K68" s="112"/>
+      <c r="L68" s="113"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="113"/>
+      <c r="O68" s="114"/>
+    </row>
+    <row r="69" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C70" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="124"/>
+      <c r="E70" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="126"/>
+      <c r="G70" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="126"/>
+      <c r="I70" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="124"/>
+      <c r="K70" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="129"/>
+      <c r="M70" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="N70" s="130"/>
+      <c r="O70" s="131"/>
+    </row>
+    <row r="71" spans="3:15" ht="15" customHeight="1">
+      <c r="C71" s="132">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" s="85"/>
+      <c r="I71" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" s="93"/>
+      <c r="K71" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" s="9"/>
+      <c r="M71" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N71" s="21"/>
+      <c r="O71" s="104"/>
+    </row>
+    <row r="72" spans="3:15">
+      <c r="C72" s="133"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="134"/>
+    </row>
+    <row r="73" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C73" s="135"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="138"/>
+      <c r="G73" s="149"/>
+      <c r="H73" s="150"/>
+      <c r="I73" s="153"/>
+      <c r="J73" s="154"/>
+      <c r="K73" s="155"/>
+      <c r="L73" s="156"/>
+      <c r="M73" s="112"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="114"/>
+    </row>
+    <row r="74" spans="3:15" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="111">
+    <mergeCell ref="C71:D73"/>
+    <mergeCell ref="E71:F73"/>
+    <mergeCell ref="G71:H73"/>
+    <mergeCell ref="I71:J73"/>
+    <mergeCell ref="K71:L73"/>
+    <mergeCell ref="M71:O73"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="K67:O68"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="C61:O62"/>
+    <mergeCell ref="C64:O65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="C57:D59"/>
+    <mergeCell ref="E57:F59"/>
+    <mergeCell ref="G57:H59"/>
+    <mergeCell ref="I57:J59"/>
+    <mergeCell ref="K57:L59"/>
+    <mergeCell ref="M57:O59"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:G54"/>
+    <mergeCell ref="H53:J54"/>
+    <mergeCell ref="K53:O54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="C47:O48"/>
     <mergeCell ref="C50:O51"/>
-    <mergeCell ref="C53:O54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:O55"/>
-    <mergeCell ref="C45:D47"/>
-    <mergeCell ref="E45:F47"/>
-    <mergeCell ref="G45:H47"/>
-    <mergeCell ref="I45:J47"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="M45:O47"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="K41:O42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="C35:O36"/>
-    <mergeCell ref="C38:O39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="E30:F32"/>
-    <mergeCell ref="G30:H32"/>
-    <mergeCell ref="I30:J32"/>
-    <mergeCell ref="K30:L32"/>
-    <mergeCell ref="M30:O32"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:O27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="C20:O21"/>
-    <mergeCell ref="C23:O24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E43:F45"/>
+    <mergeCell ref="G43:H45"/>
+    <mergeCell ref="I43:J45"/>
+    <mergeCell ref="K43:L45"/>
+    <mergeCell ref="M43:O45"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H39:J40"/>
+    <mergeCell ref="K39:O40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="C33:O34"/>
+    <mergeCell ref="C36:O37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:F31"/>
+    <mergeCell ref="G29:H31"/>
+    <mergeCell ref="I29:J31"/>
+    <mergeCell ref="K29:L31"/>
+    <mergeCell ref="M29:O31"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="H25:J26"/>
+    <mergeCell ref="K25:O26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="C19:O20"/>
+    <mergeCell ref="C22:O23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
     <mergeCell ref="C15:D17"/>
     <mergeCell ref="E15:F17"/>
     <mergeCell ref="G15:H17"/>
@@ -2405,18 +4485,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>

--- a/Money makers - QA.xlsx
+++ b/Money makers - QA.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main menu" sheetId="1" r:id="rId1"/>
     <sheet name="Front-end" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Back-end" sheetId="3" r:id="rId3"/>
+    <sheet name="Overall report " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="120">
   <si>
     <t>Money makers - QA Documentation | Main menu</t>
   </si>
@@ -199,6 +200,183 @@
   </si>
   <si>
     <t>"CONGRATULATIONS" screen is presented to the user.</t>
+  </si>
+  <si>
+    <t>Money makers - QA Documentation | Back-end</t>
+  </si>
+  <si>
+    <t>Case test 10</t>
+  </si>
+  <si>
+    <t>Wrong answer</t>
+  </si>
+  <si>
+    <t>When the user guesses wrong, the lifes go down by 1.</t>
+  </si>
+  <si>
+    <t>Wrong answer is guessed.</t>
+  </si>
+  <si>
+    <t>Lifes go down by one.</t>
+  </si>
+  <si>
+    <t>Lifes go donw by one.</t>
+  </si>
+  <si>
+    <t>Case test 11</t>
+  </si>
+  <si>
+    <t>Right answer</t>
+  </si>
+  <si>
+    <t>When the user guesses right, the player moves by 1 space.</t>
+  </si>
+  <si>
+    <t>Right answer is guessed.</t>
+  </si>
+  <si>
+    <t>Goes one space ahead.</t>
+  </si>
+  <si>
+    <t>Case test 12</t>
+  </si>
+  <si>
+    <t>Forfeit</t>
+  </si>
+  <si>
+    <t>When the user frofiets, the game ends.</t>
+  </si>
+  <si>
+    <t>"!F" is typed in the textbox.</t>
+  </si>
+  <si>
+    <t>The forfeit screen is shown without the user losing.</t>
+  </si>
+  <si>
+    <t>Case test 13</t>
+  </si>
+  <si>
+    <t>Game Over loss</t>
+  </si>
+  <si>
+    <t>When the user loses all his lifes, the game ends.</t>
+  </si>
+  <si>
+    <t>All lifes are lost.</t>
+  </si>
+  <si>
+    <t>The lifes get below 1 and the game ends with a loss.</t>
+  </si>
+  <si>
+    <t>Case test 14</t>
+  </si>
+  <si>
+    <t>Game Win</t>
+  </si>
+  <si>
+    <t>When the user gueses all the questions, the game ends with a win.</t>
+  </si>
+  <si>
+    <t>All questions are guessed with the lifes above 1.</t>
+  </si>
+  <si>
+    <t>The game ends with a win.</t>
+  </si>
+  <si>
+    <t>Case test 15</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>When a checkpoint is crossed, the user always gets the money.</t>
+  </si>
+  <si>
+    <t>A checkpoint is crossed and the game is lost.</t>
+  </si>
+  <si>
+    <t>You get the money from the checkpoint.</t>
+  </si>
+  <si>
+    <t>Case test 16</t>
+  </si>
+  <si>
+    <t>Random Questions</t>
+  </si>
+  <si>
+    <t>The questions are randomly picked.</t>
+  </si>
+  <si>
+    <t>A game is started and a question is guessed.</t>
+  </si>
+  <si>
+    <t>You get a random question every time.</t>
+  </si>
+  <si>
+    <t>Case test 17</t>
+  </si>
+  <si>
+    <t>Remove Questions</t>
+  </si>
+  <si>
+    <t>Questions that are shown are removed to not be repeated.</t>
+  </si>
+  <si>
+    <t>The whole game is beat to see if a question repeats.</t>
+  </si>
+  <si>
+    <t>Not a single question is repeated.</t>
+  </si>
+  <si>
+    <t>Case test 18</t>
+  </si>
+  <si>
+    <t>Menu Choice</t>
+  </si>
+  <si>
+    <t>The user selects a option on the menu.</t>
+  </si>
+  <si>
+    <t>Every option on the main menu is tested.</t>
+  </si>
+  <si>
+    <t>Every choice is functional.</t>
+  </si>
+  <si>
+    <t>Money makers - QA Documentation | Overall report</t>
+  </si>
+  <si>
+    <t>TEST REPORT</t>
+  </si>
+  <si>
+    <t>Test report</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Not tested</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>Final status</t>
+  </si>
+  <si>
+    <t>0, 0.00%</t>
+  </si>
+  <si>
+    <t>18, 100.00%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
   </si>
 </sst>
 </file>
@@ -305,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1007,17 +1185,387 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1032,6 +1580,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1044,221 +1634,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1272,6 +1652,96 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1284,250 +1754,189 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1833,51 +2242,51 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="3:15">
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="3:15">
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="3:15" ht="15.75" thickBot="1">
       <c r="C4" s="1"/>
@@ -1895,36 +2304,36 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C7" s="1"/>
@@ -1942,97 +2351,97 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="51"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="59"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="34" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="38" t="s">
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="39"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C13" s="1"/>
@@ -2050,88 +2459,88 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="3:15" ht="16.5" thickTop="1">
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="125" t="s">
+      <c r="F14" s="61"/>
+      <c r="G14" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="128" t="s">
+      <c r="J14" s="59"/>
+      <c r="K14" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="129"/>
-      <c r="M14" s="125" t="s">
+      <c r="L14" s="64"/>
+      <c r="M14" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="130"/>
-      <c r="O14" s="131"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
     </row>
     <row r="15" spans="3:15" ht="15" customHeight="1">
-      <c r="C15" s="132">
+      <c r="C15" s="67">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="68"/>
+      <c r="E15" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="74"/>
+      <c r="G15" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="80"/>
+      <c r="I15" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="86"/>
+      <c r="K15" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="20" t="s">
+      <c r="L15" s="80"/>
+      <c r="M15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="104"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="133"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="134"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="114"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="3:15" ht="15.75" thickTop="1">
       <c r="C18" s="1"/>
@@ -2164,36 +2573,36 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C22" s="1"/>
@@ -2211,97 +2620,97 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="3:15">
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="51"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="54"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57" t="s">
+      <c r="I25" s="29"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
     </row>
     <row r="26" spans="3:15">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="40"/>
+      <c r="E26" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="34" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="38" t="s">
+      <c r="I26" s="50"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="39"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="54"/>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="57"/>
     </row>
     <row r="28" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C28" s="1"/>
@@ -2319,88 +2728,88 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="3:15" ht="16.5" thickTop="1">
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="126"/>
-      <c r="G29" s="125" t="s">
+      <c r="F29" s="61"/>
+      <c r="G29" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="126"/>
-      <c r="I29" s="127" t="s">
+      <c r="H29" s="61"/>
+      <c r="I29" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="124"/>
-      <c r="K29" s="128" t="s">
+      <c r="J29" s="59"/>
+      <c r="K29" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="129"/>
-      <c r="M29" s="125" t="s">
+      <c r="L29" s="64"/>
+      <c r="M29" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="130"/>
-      <c r="O29" s="131"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="66"/>
     </row>
     <row r="30" spans="3:15" ht="15" customHeight="1">
-      <c r="C30" s="132">
+      <c r="C30" s="67">
         <v>2</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="68"/>
+      <c r="E30" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="74"/>
+      <c r="G30" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12" t="s">
+      <c r="H30" s="92"/>
+      <c r="I30" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="16" t="s">
+      <c r="J30" s="86"/>
+      <c r="K30" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="20" t="s">
+      <c r="L30" s="80"/>
+      <c r="M30" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="104"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="32"/>
     </row>
     <row r="31" spans="3:15">
-      <c r="C31" s="133"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="134"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="35"/>
     </row>
     <row r="32" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="114"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="3:15" ht="15.75" thickTop="1">
       <c r="C33" s="1"/>
@@ -2433,36 +2842,36 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="13"/>
     </row>
     <row r="36" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="48"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="16"/>
     </row>
     <row r="37" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C37" s="1"/>
@@ -2480,97 +2889,97 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="51"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="19"/>
     </row>
     <row r="39" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="54"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="22"/>
     </row>
     <row r="40" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="60" t="s">
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="61"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="57" t="s">
+      <c r="I40" s="29"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="59"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="28" t="s">
+      <c r="D41" s="40"/>
+      <c r="E41" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="34" t="s">
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="38" t="s">
+      <c r="I41" s="50"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="39"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="54"/>
     </row>
     <row r="42" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="42"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="57"/>
     </row>
     <row r="43" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C43" s="1"/>
@@ -2588,88 +2997,88 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="3:15" ht="16.5" thickTop="1">
-      <c r="C44" s="123" t="s">
+      <c r="C44" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="124"/>
-      <c r="E44" s="125" t="s">
+      <c r="D44" s="59"/>
+      <c r="E44" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="126"/>
-      <c r="G44" s="125" t="s">
+      <c r="F44" s="61"/>
+      <c r="G44" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="126"/>
-      <c r="I44" s="127" t="s">
+      <c r="H44" s="61"/>
+      <c r="I44" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="124"/>
-      <c r="K44" s="128" t="s">
+      <c r="J44" s="59"/>
+      <c r="K44" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="129"/>
-      <c r="M44" s="125" t="s">
+      <c r="L44" s="64"/>
+      <c r="M44" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="130"/>
-      <c r="O44" s="131"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="66"/>
     </row>
     <row r="45" spans="3:15" ht="30" customHeight="1">
-      <c r="C45" s="132">
+      <c r="C45" s="67">
         <v>3</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="68"/>
+      <c r="E45" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8" t="s">
+      <c r="F45" s="74"/>
+      <c r="G45" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12" t="s">
+      <c r="H45" s="92"/>
+      <c r="I45" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="16" t="s">
+      <c r="J45" s="86"/>
+      <c r="K45" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="20" t="s">
+      <c r="L45" s="80"/>
+      <c r="M45" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="21"/>
-      <c r="O45" s="104"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="32"/>
     </row>
     <row r="46" spans="3:15">
-      <c r="C46" s="133"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="134"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="35"/>
     </row>
     <row r="47" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C47" s="135"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="114"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="3:15" ht="15.75" thickTop="1">
       <c r="C48" s="1"/>
@@ -2702,36 +3111,36 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="45"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="13"/>
     </row>
     <row r="51" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="48"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="16"/>
     </row>
     <row r="52" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C52" s="1"/>
@@ -2749,97 +3158,97 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="51"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="19"/>
     </row>
     <row r="54" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C54" s="52"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="54"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="22"/>
     </row>
     <row r="55" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57" t="s">
+      <c r="D55" s="24"/>
+      <c r="E55" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="58"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="60" t="s">
+      <c r="F55" s="26"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="61"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="57" t="s">
+      <c r="I55" s="29"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="59"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="27"/>
     </row>
     <row r="56" spans="3:15">
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="28" t="s">
+      <c r="D56" s="40"/>
+      <c r="E56" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="34" t="s">
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="38" t="s">
+      <c r="I56" s="50"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="39"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="54"/>
     </row>
     <row r="57" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="42"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="57"/>
     </row>
     <row r="58" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C58" s="1"/>
@@ -2857,99 +3266,158 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="3:15" ht="16.5" thickTop="1">
-      <c r="C59" s="123" t="s">
+      <c r="C59" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="124"/>
-      <c r="E59" s="125" t="s">
+      <c r="D59" s="59"/>
+      <c r="E59" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="126"/>
-      <c r="G59" s="125" t="s">
+      <c r="F59" s="61"/>
+      <c r="G59" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="126"/>
-      <c r="I59" s="127" t="s">
+      <c r="H59" s="61"/>
+      <c r="I59" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J59" s="124"/>
-      <c r="K59" s="128" t="s">
+      <c r="J59" s="59"/>
+      <c r="K59" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L59" s="129"/>
-      <c r="M59" s="125" t="s">
+      <c r="L59" s="64"/>
+      <c r="M59" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="130"/>
-      <c r="O59" s="131"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="66"/>
     </row>
     <row r="60" spans="3:15" ht="15" customHeight="1">
-      <c r="C60" s="132">
+      <c r="C60" s="67">
         <v>4</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="68"/>
+      <c r="E60" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="74"/>
+      <c r="G60" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12" t="s">
+      <c r="H60" s="92"/>
+      <c r="I60" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="J60" s="13"/>
-      <c r="K60" s="16" t="s">
+      <c r="J60" s="86"/>
+      <c r="K60" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="20" t="s">
+      <c r="L60" s="80"/>
+      <c r="M60" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N60" s="21"/>
-      <c r="O60" s="104"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="32"/>
     </row>
     <row r="61" spans="3:15">
-      <c r="C61" s="133"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="134"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="35"/>
     </row>
     <row r="62" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C62" s="135"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="138"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="110"/>
-      <c r="L62" s="106"/>
-      <c r="M62" s="112"/>
-      <c r="N62" s="113"/>
-      <c r="O62" s="114"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="38"/>
     </row>
     <row r="63" spans="3:15" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="C1:O3"/>
-    <mergeCell ref="C5:O6"/>
-    <mergeCell ref="C8:O9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:G57"/>
+    <mergeCell ref="H56:J57"/>
+    <mergeCell ref="K56:O57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="C60:D62"/>
+    <mergeCell ref="E60:F62"/>
+    <mergeCell ref="G60:H62"/>
+    <mergeCell ref="I60:J62"/>
+    <mergeCell ref="K60:L62"/>
+    <mergeCell ref="C50:O51"/>
+    <mergeCell ref="C53:O54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:O55"/>
+    <mergeCell ref="M45:O47"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="K41:O42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="C45:D47"/>
+    <mergeCell ref="E45:F47"/>
+    <mergeCell ref="G45:H47"/>
+    <mergeCell ref="I45:J47"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="C35:O36"/>
+    <mergeCell ref="C38:O39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="M30:O32"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:O27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="C30:D32"/>
+    <mergeCell ref="E30:F32"/>
+    <mergeCell ref="G30:H32"/>
+    <mergeCell ref="I30:J32"/>
+    <mergeCell ref="K30:L32"/>
+    <mergeCell ref="C20:O21"/>
+    <mergeCell ref="C23:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:O25"/>
     <mergeCell ref="M15:O17"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="E11:G12"/>
@@ -2966,72 +3434,13 @@
     <mergeCell ref="G15:H17"/>
     <mergeCell ref="I15:J17"/>
     <mergeCell ref="K15:L17"/>
-    <mergeCell ref="C20:O21"/>
-    <mergeCell ref="C23:O24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="M30:O32"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:O27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="E30:F32"/>
-    <mergeCell ref="G30:H32"/>
-    <mergeCell ref="I30:J32"/>
-    <mergeCell ref="K30:L32"/>
-    <mergeCell ref="C35:O36"/>
-    <mergeCell ref="C38:O39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="M45:O47"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="K41:O42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="C45:D47"/>
-    <mergeCell ref="E45:F47"/>
-    <mergeCell ref="G45:H47"/>
-    <mergeCell ref="I45:J47"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="C50:O51"/>
-    <mergeCell ref="C53:O54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:O55"/>
-    <mergeCell ref="M60:O62"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:G57"/>
-    <mergeCell ref="H56:J57"/>
-    <mergeCell ref="K56:O57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="C60:D62"/>
-    <mergeCell ref="E60:F62"/>
-    <mergeCell ref="G60:H62"/>
-    <mergeCell ref="I60:J62"/>
-    <mergeCell ref="K60:L62"/>
+    <mergeCell ref="C1:O3"/>
+    <mergeCell ref="C5:O6"/>
+    <mergeCell ref="C8:O9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3042,58 +3451,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="117"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="161"/>
     </row>
     <row r="2" spans="3:15">
-      <c r="C2" s="118"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="119"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="163"/>
     </row>
     <row r="3" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="166"/>
     </row>
     <row r="4" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C4" s="1"/>
@@ -3111,36 +3520,36 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C7" s="1"/>
@@ -3158,97 +3567,97 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="163"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="169"/>
     </row>
     <row r="9" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C9" s="164"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="165"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="172"/>
     </row>
     <row r="10" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159" t="s">
+      <c r="D10" s="150"/>
+      <c r="E10" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="158" t="s">
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="159" t="s">
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="167"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="173"/>
     </row>
     <row r="11" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159" t="s">
+      <c r="D11" s="150"/>
+      <c r="E11" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="158" t="s">
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="160" t="s">
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="168"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="156"/>
     </row>
     <row r="12" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C12" s="169"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="173"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="158"/>
     </row>
     <row r="13" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C13" s="1"/>
@@ -3266,88 +3675,88 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="3:15" ht="16.5" thickTop="1">
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="125" t="s">
+      <c r="F14" s="61"/>
+      <c r="G14" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="128" t="s">
+      <c r="J14" s="59"/>
+      <c r="K14" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="129"/>
-      <c r="M14" s="125" t="s">
+      <c r="L14" s="64"/>
+      <c r="M14" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="130"/>
-      <c r="O14" s="131"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
     </row>
     <row r="15" spans="3:15" ht="15" customHeight="1">
-      <c r="C15" s="132">
+      <c r="C15" s="67">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="68"/>
+      <c r="E15" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="74"/>
+      <c r="G15" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="80"/>
+      <c r="I15" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="74" t="s">
+      <c r="J15" s="86"/>
+      <c r="K15" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="20" t="s">
+      <c r="L15" s="138"/>
+      <c r="M15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="104"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="133"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="134"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="140"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="90"/>
       <c r="K17" s="141"/>
       <c r="L17" s="142"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="114"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C18" s="1"/>
@@ -3412,97 +3821,97 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="98"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="119"/>
     </row>
     <row r="23" spans="3:15">
-      <c r="C23" s="99"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="100"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="122"/>
     </row>
     <row r="24" spans="3:15">
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="73" t="s">
+      <c r="D24" s="124"/>
+      <c r="E24" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="72" t="s">
+      <c r="F24" s="126"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="73" t="s">
+      <c r="I24" s="129"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="102"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="130"/>
     </row>
     <row r="25" spans="3:15">
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="82" t="s">
+      <c r="D25" s="80"/>
+      <c r="E25" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="16" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="20" t="s">
+      <c r="I25" s="50"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="104"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="32"/>
     </row>
     <row r="26" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="114"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C27" s="1"/>
@@ -3520,88 +3929,88 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="3:15" ht="16.5" thickTop="1">
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="126"/>
-      <c r="G28" s="125" t="s">
+      <c r="F28" s="61"/>
+      <c r="G28" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="126"/>
-      <c r="I28" s="127" t="s">
+      <c r="H28" s="61"/>
+      <c r="I28" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="124"/>
-      <c r="K28" s="128" t="s">
+      <c r="J28" s="59"/>
+      <c r="K28" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="129"/>
-      <c r="M28" s="125" t="s">
+      <c r="L28" s="64"/>
+      <c r="M28" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="130"/>
-      <c r="O28" s="131"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="66"/>
     </row>
     <row r="29" spans="3:15" ht="15" customHeight="1">
-      <c r="C29" s="132">
+      <c r="C29" s="67">
         <v>2</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="68"/>
+      <c r="E29" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="74"/>
+      <c r="G29" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="12" t="s">
+      <c r="H29" s="80"/>
+      <c r="I29" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="74" t="s">
+      <c r="J29" s="86"/>
+      <c r="K29" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="75"/>
-      <c r="M29" s="20" t="s">
+      <c r="L29" s="138"/>
+      <c r="M29" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="104"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="32"/>
     </row>
     <row r="30" spans="3:15">
-      <c r="C30" s="133"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="134"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
     </row>
     <row r="31" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="140"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
       <c r="K31" s="141"/>
       <c r="L31" s="142"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="114"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C32" s="1"/>
@@ -3619,36 +4028,36 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="48"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="16"/>
     </row>
     <row r="35" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C35" s="1"/>
@@ -3666,97 +4075,97 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="98"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="119"/>
     </row>
     <row r="37" spans="3:15">
-      <c r="C37" s="99"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="100"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="122"/>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="73" t="s">
+      <c r="D38" s="124"/>
+      <c r="E38" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="72" t="s">
+      <c r="F38" s="126"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="81"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="73" t="s">
+      <c r="I38" s="129"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="102"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="126"/>
+      <c r="N38" s="126"/>
+      <c r="O38" s="130"/>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39" s="103" t="s">
+      <c r="C39" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="82" t="s">
+      <c r="D39" s="80"/>
+      <c r="E39" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="16" t="s">
+      <c r="F39" s="44"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="20" t="s">
+      <c r="I39" s="50"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="104"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="32"/>
     </row>
     <row r="40" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C40" s="105"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="114"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="38"/>
     </row>
     <row r="41" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C41" s="1"/>
@@ -3774,88 +4183,88 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="3:15" ht="16.5" thickTop="1">
-      <c r="C42" s="123" t="s">
+      <c r="C42" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="124"/>
-      <c r="E42" s="125" t="s">
+      <c r="D42" s="59"/>
+      <c r="E42" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="126"/>
-      <c r="G42" s="125" t="s">
+      <c r="F42" s="61"/>
+      <c r="G42" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="126"/>
-      <c r="I42" s="127" t="s">
+      <c r="H42" s="61"/>
+      <c r="I42" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="124"/>
-      <c r="K42" s="128" t="s">
+      <c r="J42" s="59"/>
+      <c r="K42" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="129"/>
-      <c r="M42" s="125" t="s">
+      <c r="L42" s="64"/>
+      <c r="M42" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="130"/>
-      <c r="O42" s="131"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="66"/>
     </row>
     <row r="43" spans="3:15" ht="30" customHeight="1">
-      <c r="C43" s="132">
+      <c r="C43" s="67">
         <v>3</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="68"/>
+      <c r="E43" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="84" t="s">
+      <c r="F43" s="74"/>
+      <c r="G43" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="85"/>
-      <c r="I43" s="12" t="s">
+      <c r="H43" s="98"/>
+      <c r="I43" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="88" t="s">
+      <c r="J43" s="86"/>
+      <c r="K43" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="L43" s="89"/>
-      <c r="M43" s="20" t="s">
+      <c r="L43" s="132"/>
+      <c r="M43" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="104"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="32"/>
     </row>
     <row r="44" spans="3:15">
-      <c r="C44" s="133"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="134"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="35"/>
     </row>
     <row r="45" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C45" s="135"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="151"/>
-      <c r="L45" s="152"/>
-      <c r="M45" s="112"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="114"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="38"/>
     </row>
     <row r="46" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C46" s="1"/>
@@ -3873,36 +4282,36 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="13"/>
     </row>
     <row r="48" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C48" s="46"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="48"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="16"/>
     </row>
     <row r="49" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C49" s="1"/>
@@ -3920,97 +4329,97 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C50" s="96" t="s">
+      <c r="C50" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="97"/>
-      <c r="M50" s="97"/>
-      <c r="N50" s="97"/>
-      <c r="O50" s="98"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="118"/>
+      <c r="N50" s="118"/>
+      <c r="O50" s="119"/>
     </row>
     <row r="51" spans="3:15">
-      <c r="C51" s="99"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="100"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="122"/>
     </row>
     <row r="52" spans="3:15">
-      <c r="C52" s="101" t="s">
+      <c r="C52" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="79"/>
-      <c r="E52" s="73" t="s">
+      <c r="D52" s="124"/>
+      <c r="E52" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="72" t="s">
+      <c r="F52" s="126"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="81"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="73" t="s">
+      <c r="I52" s="129"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="102"/>
+      <c r="L52" s="126"/>
+      <c r="M52" s="126"/>
+      <c r="N52" s="126"/>
+      <c r="O52" s="130"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="103" t="s">
+      <c r="C53" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="82" t="s">
+      <c r="D53" s="80"/>
+      <c r="E53" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="16" t="s">
+      <c r="F53" s="44"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="20" t="s">
+      <c r="I53" s="50"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="104"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="32"/>
     </row>
     <row r="54" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C54" s="105"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="112"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="113"/>
-      <c r="N54" s="113"/>
-      <c r="O54" s="114"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="38"/>
     </row>
     <row r="55" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C55" s="1"/>
@@ -4028,88 +4437,88 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="3:15" ht="16.5" thickTop="1">
-      <c r="C56" s="123" t="s">
+      <c r="C56" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="124"/>
-      <c r="E56" s="125" t="s">
+      <c r="D56" s="59"/>
+      <c r="E56" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="126"/>
-      <c r="G56" s="125" t="s">
+      <c r="F56" s="61"/>
+      <c r="G56" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="126"/>
-      <c r="I56" s="127" t="s">
+      <c r="H56" s="61"/>
+      <c r="I56" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="124"/>
-      <c r="K56" s="128" t="s">
+      <c r="J56" s="59"/>
+      <c r="K56" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="129"/>
-      <c r="M56" s="125" t="s">
+      <c r="L56" s="64"/>
+      <c r="M56" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N56" s="130"/>
-      <c r="O56" s="131"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="66"/>
     </row>
     <row r="57" spans="3:15" ht="15" customHeight="1">
-      <c r="C57" s="132">
+      <c r="C57" s="67">
         <v>4</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="68"/>
+      <c r="E57" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="84" t="s">
+      <c r="F57" s="74"/>
+      <c r="G57" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="85"/>
-      <c r="I57" s="4" t="s">
+      <c r="H57" s="98"/>
+      <c r="I57" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="84" t="s">
+      <c r="J57" s="74"/>
+      <c r="K57" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="L57" s="85"/>
-      <c r="M57" s="20" t="s">
+      <c r="L57" s="98"/>
+      <c r="M57" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="21"/>
-      <c r="O57" s="104"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="32"/>
     </row>
     <row r="58" spans="3:15">
-      <c r="C58" s="133"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="134"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="35"/>
     </row>
     <row r="59" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C59" s="135"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="149"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="137"/>
-      <c r="J59" s="138"/>
-      <c r="K59" s="149"/>
-      <c r="L59" s="150"/>
-      <c r="M59" s="112"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="114"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="38"/>
     </row>
     <row r="60" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C60" s="1"/>
@@ -4127,36 +4536,36 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="45"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="13"/>
     </row>
     <row r="62" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="48"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="16"/>
     </row>
     <row r="63" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C63" s="1"/>
@@ -4174,97 +4583,97 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="3:15" ht="15.75" thickTop="1">
-      <c r="C64" s="96" t="s">
+      <c r="C64" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="97"/>
-      <c r="J64" s="97"/>
-      <c r="K64" s="97"/>
-      <c r="L64" s="97"/>
-      <c r="M64" s="97"/>
-      <c r="N64" s="97"/>
-      <c r="O64" s="98"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="118"/>
+      <c r="J64" s="118"/>
+      <c r="K64" s="118"/>
+      <c r="L64" s="118"/>
+      <c r="M64" s="118"/>
+      <c r="N64" s="118"/>
+      <c r="O64" s="119"/>
     </row>
     <row r="65" spans="3:15">
-      <c r="C65" s="99"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="78"/>
-      <c r="N65" s="78"/>
-      <c r="O65" s="100"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="121"/>
+      <c r="L65" s="121"/>
+      <c r="M65" s="121"/>
+      <c r="N65" s="121"/>
+      <c r="O65" s="122"/>
     </row>
     <row r="66" spans="3:15">
-      <c r="C66" s="101" t="s">
+      <c r="C66" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="79"/>
-      <c r="E66" s="73" t="s">
+      <c r="D66" s="124"/>
+      <c r="E66" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="F66" s="71"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="72" t="s">
+      <c r="F66" s="126"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="81"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="73" t="s">
+      <c r="I66" s="129"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="102"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="126"/>
+      <c r="N66" s="126"/>
+      <c r="O66" s="130"/>
     </row>
     <row r="67" spans="3:15">
-      <c r="C67" s="103" t="s">
+      <c r="C67" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="82" t="s">
+      <c r="D67" s="80"/>
+      <c r="E67" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="16" t="s">
+      <c r="F67" s="44"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="20" t="s">
+      <c r="I67" s="50"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="104"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="32"/>
     </row>
     <row r="68" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C68" s="105"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="110"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="112"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="113"/>
-      <c r="N68" s="113"/>
-      <c r="O68" s="114"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="38"/>
     </row>
     <row r="69" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C69" s="1"/>
@@ -4282,92 +4691,2643 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="3:15" ht="16.5" thickTop="1">
-      <c r="C70" s="123" t="s">
+      <c r="C70" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="124"/>
-      <c r="E70" s="125" t="s">
+      <c r="D70" s="59"/>
+      <c r="E70" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="126"/>
-      <c r="G70" s="125" t="s">
+      <c r="F70" s="61"/>
+      <c r="G70" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="126"/>
-      <c r="I70" s="127" t="s">
+      <c r="H70" s="61"/>
+      <c r="I70" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="124"/>
-      <c r="K70" s="128" t="s">
+      <c r="J70" s="59"/>
+      <c r="K70" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L70" s="129"/>
-      <c r="M70" s="125" t="s">
+      <c r="L70" s="64"/>
+      <c r="M70" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N70" s="130"/>
-      <c r="O70" s="131"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="66"/>
     </row>
     <row r="71" spans="3:15" ht="15" customHeight="1">
-      <c r="C71" s="132">
+      <c r="C71" s="67">
         <v>5</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="4" t="s">
+      <c r="D71" s="68"/>
+      <c r="E71" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="84" t="s">
+      <c r="F71" s="74"/>
+      <c r="G71" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="H71" s="85"/>
-      <c r="I71" s="92" t="s">
+      <c r="H71" s="98"/>
+      <c r="I71" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="J71" s="93"/>
-      <c r="K71" s="8" t="s">
+      <c r="J71" s="104"/>
+      <c r="K71" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="L71" s="9"/>
-      <c r="M71" s="20" t="s">
+      <c r="L71" s="92"/>
+      <c r="M71" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N71" s="21"/>
-      <c r="O71" s="104"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="32"/>
     </row>
     <row r="72" spans="3:15">
-      <c r="C72" s="133"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="134"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="100"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="106"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="35"/>
     </row>
     <row r="73" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C73" s="135"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="138"/>
-      <c r="G73" s="149"/>
-      <c r="H73" s="150"/>
-      <c r="I73" s="153"/>
-      <c r="J73" s="154"/>
-      <c r="K73" s="155"/>
-      <c r="L73" s="156"/>
-      <c r="M73" s="112"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="114"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="96"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="38"/>
     </row>
     <row r="74" spans="3:15" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="C1:O3"/>
+    <mergeCell ref="C5:O6"/>
+    <mergeCell ref="C8:O9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:G12"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="K11:O12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="C19:O20"/>
+    <mergeCell ref="C22:O23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="H25:J26"/>
+    <mergeCell ref="K25:O26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="C33:O34"/>
+    <mergeCell ref="C36:O37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:F31"/>
+    <mergeCell ref="G29:H31"/>
+    <mergeCell ref="I29:J31"/>
+    <mergeCell ref="K29:L31"/>
+    <mergeCell ref="M29:O31"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H39:J40"/>
+    <mergeCell ref="K39:O40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="C47:O48"/>
+    <mergeCell ref="C50:O51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E43:F45"/>
+    <mergeCell ref="G43:H45"/>
+    <mergeCell ref="I43:J45"/>
+    <mergeCell ref="K43:L45"/>
+    <mergeCell ref="M43:O45"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:G54"/>
+    <mergeCell ref="H53:J54"/>
+    <mergeCell ref="K53:O54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="C61:O62"/>
+    <mergeCell ref="C64:O65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="C57:D59"/>
+    <mergeCell ref="E57:F59"/>
+    <mergeCell ref="G57:H59"/>
+    <mergeCell ref="I57:J59"/>
+    <mergeCell ref="K57:L59"/>
+    <mergeCell ref="M57:O59"/>
+    <mergeCell ref="C71:D73"/>
+    <mergeCell ref="E71:F73"/>
+    <mergeCell ref="G71:H73"/>
+    <mergeCell ref="I71:J73"/>
+    <mergeCell ref="K71:L73"/>
+    <mergeCell ref="M71:O73"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="K67:O68"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:O70"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:O130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C1" s="159" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="161"/>
+    </row>
+    <row r="2" spans="3:15">
+      <c r="C2" s="162"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="163"/>
+    </row>
+    <row r="3" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="166"/>
+    </row>
+    <row r="4" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+    </row>
+    <row r="13" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C14" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="K14" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="64"/>
+      <c r="M14" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
+    </row>
+    <row r="15" spans="3:15" ht="15" customHeight="1">
+      <c r="C15" s="67">
+        <v>1</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="86"/>
+      <c r="K15" s="131" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="132"/>
+      <c r="M15" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="C22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="54"/>
+    </row>
+    <row r="26" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="57"/>
+    </row>
+    <row r="27" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C28" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="64"/>
+      <c r="M28" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="65"/>
+      <c r="O28" s="66"/>
+    </row>
+    <row r="29" spans="3:15" ht="30" customHeight="1">
+      <c r="C29" s="67">
+        <v>2</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="98"/>
+      <c r="I29" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="86"/>
+      <c r="K29" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="132"/>
+      <c r="M29" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="31"/>
+      <c r="O29" s="32"/>
+    </row>
+    <row r="30" spans="3:15">
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="38"/>
+    </row>
+    <row r="32" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="19"/>
+    </row>
+    <row r="37" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="22"/>
+    </row>
+    <row r="38" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C38" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="C39" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="50"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="54"/>
+    </row>
+    <row r="40" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="57"/>
+    </row>
+    <row r="41" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C42" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="61"/>
+      <c r="G42" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="59"/>
+      <c r="K42" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="64"/>
+      <c r="M42" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="65"/>
+      <c r="O42" s="66"/>
+    </row>
+    <row r="43" spans="3:15" ht="17.25" customHeight="1">
+      <c r="C43" s="67">
+        <v>3</v>
+      </c>
+      <c r="D43" s="68"/>
+      <c r="E43" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="86"/>
+      <c r="G43" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="132"/>
+      <c r="I43" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="86"/>
+      <c r="K43" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43" s="132"/>
+      <c r="M43" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="31"/>
+      <c r="O43" s="32"/>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="35"/>
+    </row>
+    <row r="45" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="38"/>
+    </row>
+    <row r="46" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C47" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="3:15">
+      <c r="C50" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
+    </row>
+    <row r="51" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="22"/>
+    </row>
+    <row r="52" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C52" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="29"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="27"/>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="C53" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="40"/>
+      <c r="E53" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="50"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="54"/>
+    </row>
+    <row r="54" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="57"/>
+    </row>
+    <row r="55" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C56" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="61"/>
+      <c r="G56" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="61"/>
+      <c r="I56" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="59"/>
+      <c r="K56" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="64"/>
+      <c r="M56" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="65"/>
+      <c r="O56" s="66"/>
+    </row>
+    <row r="57" spans="3:15" ht="33" customHeight="1">
+      <c r="C57" s="67">
+        <v>4</v>
+      </c>
+      <c r="D57" s="68"/>
+      <c r="E57" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="74"/>
+      <c r="G57" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" s="132"/>
+      <c r="I57" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="86"/>
+      <c r="K57" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="L57" s="132"/>
+      <c r="M57" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="31"/>
+      <c r="O57" s="32"/>
+    </row>
+    <row r="58" spans="3:15">
+      <c r="C58" s="69"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="35"/>
+    </row>
+    <row r="59" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="135"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="38"/>
+    </row>
+    <row r="60" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C61" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="62" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="16"/>
+    </row>
+    <row r="63" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="3:15">
+      <c r="C64" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="19"/>
+    </row>
+    <row r="65" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="22"/>
+    </row>
+    <row r="66" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C66" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="26"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="29"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="27"/>
+    </row>
+    <row r="67" spans="3:15">
+      <c r="C67" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="40"/>
+      <c r="E67" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="44"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="50"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="54"/>
+    </row>
+    <row r="68" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C68" s="41"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="57"/>
+    </row>
+    <row r="69" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C70" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="59"/>
+      <c r="E70" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="61"/>
+      <c r="G70" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="61"/>
+      <c r="I70" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="59"/>
+      <c r="K70" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="64"/>
+      <c r="M70" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N70" s="65"/>
+      <c r="O70" s="66"/>
+    </row>
+    <row r="71" spans="3:15" ht="45" customHeight="1">
+      <c r="C71" s="67">
+        <v>5</v>
+      </c>
+      <c r="D71" s="68"/>
+      <c r="E71" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="74"/>
+      <c r="G71" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="H71" s="132"/>
+      <c r="I71" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="J71" s="86"/>
+      <c r="K71" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="L71" s="132"/>
+      <c r="M71" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N71" s="31"/>
+      <c r="O71" s="32"/>
+    </row>
+    <row r="72" spans="3:15">
+      <c r="C72" s="69"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="87"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="133"/>
+      <c r="L72" s="134"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="35"/>
+    </row>
+    <row r="73" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C73" s="71"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="136"/>
+      <c r="I73" s="89"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="135"/>
+      <c r="L73" s="136"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="38"/>
+    </row>
+    <row r="74" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C75" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="13"/>
+    </row>
+    <row r="76" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="16"/>
+    </row>
+    <row r="77" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="3:15">
+      <c r="C78" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="19"/>
+    </row>
+    <row r="79" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="22"/>
+    </row>
+    <row r="80" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C80" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="26"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" s="29"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="27"/>
+    </row>
+    <row r="81" spans="3:15">
+      <c r="C81" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="40"/>
+      <c r="E81" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="44"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="50"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="54"/>
+    </row>
+    <row r="82" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="57"/>
+    </row>
+    <row r="83" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C84" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="59"/>
+      <c r="E84" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="61"/>
+      <c r="G84" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="61"/>
+      <c r="I84" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="59"/>
+      <c r="K84" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="64"/>
+      <c r="M84" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N84" s="65"/>
+      <c r="O84" s="66"/>
+    </row>
+    <row r="85" spans="3:15" ht="30" customHeight="1">
+      <c r="C85" s="67">
+        <v>6</v>
+      </c>
+      <c r="D85" s="68"/>
+      <c r="E85" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" s="74"/>
+      <c r="G85" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="132"/>
+      <c r="I85" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="J85" s="86"/>
+      <c r="K85" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="L85" s="132"/>
+      <c r="M85" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N85" s="31"/>
+      <c r="O85" s="32"/>
+    </row>
+    <row r="86" spans="3:15">
+      <c r="C86" s="69"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="133"/>
+      <c r="H86" s="134"/>
+      <c r="I86" s="87"/>
+      <c r="J86" s="88"/>
+      <c r="K86" s="133"/>
+      <c r="L86" s="134"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="35"/>
+    </row>
+    <row r="87" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C87" s="71"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="135"/>
+      <c r="H87" s="136"/>
+      <c r="I87" s="89"/>
+      <c r="J87" s="90"/>
+      <c r="K87" s="135"/>
+      <c r="L87" s="136"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="38"/>
+    </row>
+    <row r="88" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C89" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="13"/>
+    </row>
+    <row r="90" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="16"/>
+    </row>
+    <row r="91" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="3:15">
+      <c r="C92" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="19"/>
+    </row>
+    <row r="93" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="22"/>
+    </row>
+    <row r="94" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C94" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" s="26"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="29"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="27"/>
+    </row>
+    <row r="95" spans="3:15">
+      <c r="C95" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="40"/>
+      <c r="E95" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="44"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="50"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="54"/>
+    </row>
+    <row r="96" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C96" s="41"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="57"/>
+    </row>
+    <row r="97" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C98" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="59"/>
+      <c r="E98" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="61"/>
+      <c r="G98" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="61"/>
+      <c r="I98" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="59"/>
+      <c r="K98" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L98" s="64"/>
+      <c r="M98" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N98" s="65"/>
+      <c r="O98" s="66"/>
+    </row>
+    <row r="99" spans="3:15" ht="17.25" customHeight="1">
+      <c r="C99" s="67">
+        <v>7</v>
+      </c>
+      <c r="D99" s="68"/>
+      <c r="E99" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" s="74"/>
+      <c r="G99" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="H99" s="132"/>
+      <c r="I99" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="J99" s="86"/>
+      <c r="K99" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="L99" s="132"/>
+      <c r="M99" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N99" s="31"/>
+      <c r="O99" s="32"/>
+    </row>
+    <row r="100" spans="3:15">
+      <c r="C100" s="69"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="133"/>
+      <c r="H100" s="134"/>
+      <c r="I100" s="87"/>
+      <c r="J100" s="88"/>
+      <c r="K100" s="133"/>
+      <c r="L100" s="134"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="34"/>
+      <c r="O100" s="35"/>
+    </row>
+    <row r="101" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C101" s="71"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="135"/>
+      <c r="H101" s="136"/>
+      <c r="I101" s="89"/>
+      <c r="J101" s="90"/>
+      <c r="K101" s="135"/>
+      <c r="L101" s="136"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="38"/>
+    </row>
+    <row r="102" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C103" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="13"/>
+    </row>
+    <row r="104" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="16"/>
+    </row>
+    <row r="105" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="3:15">
+      <c r="C106" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="19"/>
+    </row>
+    <row r="107" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C107" s="20"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="22"/>
+    </row>
+    <row r="108" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C108" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" s="26"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" s="29"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="27"/>
+    </row>
+    <row r="109" spans="3:15">
+      <c r="C109" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="40"/>
+      <c r="E109" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="44"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="50"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" s="31"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="31"/>
+      <c r="O109" s="54"/>
+    </row>
+    <row r="110" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C110" s="41"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="55"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="56"/>
+      <c r="O110" s="57"/>
+    </row>
+    <row r="111" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+    </row>
+    <row r="112" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C112" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="59"/>
+      <c r="E112" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="61"/>
+      <c r="G112" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="61"/>
+      <c r="I112" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" s="59"/>
+      <c r="K112" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" s="64"/>
+      <c r="M112" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N112" s="65"/>
+      <c r="O112" s="66"/>
+    </row>
+    <row r="113" spans="3:15" ht="17.25" customHeight="1">
+      <c r="C113" s="67">
+        <v>8</v>
+      </c>
+      <c r="D113" s="68"/>
+      <c r="E113" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F113" s="74"/>
+      <c r="G113" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="H113" s="132"/>
+      <c r="I113" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="J113" s="86"/>
+      <c r="K113" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="L113" s="132"/>
+      <c r="M113" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N113" s="31"/>
+      <c r="O113" s="32"/>
+    </row>
+    <row r="114" spans="3:15">
+      <c r="C114" s="69"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="75"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="133"/>
+      <c r="H114" s="134"/>
+      <c r="I114" s="87"/>
+      <c r="J114" s="88"/>
+      <c r="K114" s="133"/>
+      <c r="L114" s="134"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="34"/>
+      <c r="O114" s="35"/>
+    </row>
+    <row r="115" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C115" s="71"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="135"/>
+      <c r="H115" s="136"/>
+      <c r="I115" s="89"/>
+      <c r="J115" s="90"/>
+      <c r="K115" s="135"/>
+      <c r="L115" s="136"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="37"/>
+      <c r="O115" s="38"/>
+    </row>
+    <row r="116" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C117" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="13"/>
+    </row>
+    <row r="118" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="16"/>
+    </row>
+    <row r="119" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120" spans="3:15">
+      <c r="C120" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="19"/>
+    </row>
+    <row r="121" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C121" s="20"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="22"/>
+    </row>
+    <row r="122" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C122" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F122" s="26"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I122" s="29"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L122" s="26"/>
+      <c r="M122" s="26"/>
+      <c r="N122" s="26"/>
+      <c r="O122" s="27"/>
+    </row>
+    <row r="123" spans="3:15">
+      <c r="C123" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="40"/>
+      <c r="E123" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="44"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I123" s="50"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L123" s="31"/>
+      <c r="M123" s="31"/>
+      <c r="N123" s="31"/>
+      <c r="O123" s="54"/>
+    </row>
+    <row r="124" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C124" s="41"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="51"/>
+      <c r="I124" s="52"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="55"/>
+      <c r="L124" s="56"/>
+      <c r="M124" s="56"/>
+      <c r="N124" s="56"/>
+      <c r="O124" s="57"/>
+    </row>
+    <row r="125" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+    </row>
+    <row r="126" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C126" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="59"/>
+      <c r="E126" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="61"/>
+      <c r="G126" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="61"/>
+      <c r="I126" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" s="59"/>
+      <c r="K126" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L126" s="64"/>
+      <c r="M126" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N126" s="65"/>
+      <c r="O126" s="66"/>
+    </row>
+    <row r="127" spans="3:15" ht="17.25" customHeight="1">
+      <c r="C127" s="67">
+        <v>9</v>
+      </c>
+      <c r="D127" s="68"/>
+      <c r="E127" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="F127" s="74"/>
+      <c r="G127" s="131" t="s">
+        <v>106</v>
+      </c>
+      <c r="H127" s="132"/>
+      <c r="I127" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="J127" s="86"/>
+      <c r="K127" s="131" t="s">
+        <v>107</v>
+      </c>
+      <c r="L127" s="132"/>
+      <c r="M127" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N127" s="31"/>
+      <c r="O127" s="32"/>
+    </row>
+    <row r="128" spans="3:15">
+      <c r="C128" s="69"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="75"/>
+      <c r="F128" s="76"/>
+      <c r="G128" s="133"/>
+      <c r="H128" s="134"/>
+      <c r="I128" s="87"/>
+      <c r="J128" s="88"/>
+      <c r="K128" s="133"/>
+      <c r="L128" s="134"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="34"/>
+      <c r="O128" s="35"/>
+    </row>
+    <row r="129" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C129" s="71"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="135"/>
+      <c r="H129" s="136"/>
+      <c r="I129" s="89"/>
+      <c r="J129" s="90"/>
+      <c r="K129" s="135"/>
+      <c r="L129" s="136"/>
+      <c r="M129" s="36"/>
+      <c r="N129" s="37"/>
+      <c r="O129" s="38"/>
+    </row>
+    <row r="130" spans="3:15" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="199">
+    <mergeCell ref="C127:D129"/>
+    <mergeCell ref="E127:F129"/>
+    <mergeCell ref="G127:H129"/>
+    <mergeCell ref="I127:J129"/>
+    <mergeCell ref="K127:L129"/>
+    <mergeCell ref="M127:O129"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="E123:G124"/>
+    <mergeCell ref="H123:J124"/>
+    <mergeCell ref="K123:O124"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="C117:O118"/>
+    <mergeCell ref="C120:O121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:O122"/>
+    <mergeCell ref="C113:D115"/>
+    <mergeCell ref="E113:F115"/>
+    <mergeCell ref="G113:H115"/>
+    <mergeCell ref="I113:J115"/>
+    <mergeCell ref="K113:L115"/>
+    <mergeCell ref="M113:O115"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:G110"/>
+    <mergeCell ref="H109:J110"/>
+    <mergeCell ref="K109:O110"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="C103:O104"/>
+    <mergeCell ref="C106:O107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:O108"/>
+    <mergeCell ref="C99:D101"/>
+    <mergeCell ref="E99:F101"/>
+    <mergeCell ref="G99:H101"/>
+    <mergeCell ref="I99:J101"/>
+    <mergeCell ref="K99:L101"/>
+    <mergeCell ref="M99:O101"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:G96"/>
+    <mergeCell ref="H95:J96"/>
+    <mergeCell ref="K95:O96"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="C89:O90"/>
+    <mergeCell ref="C92:O93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:O94"/>
+    <mergeCell ref="C85:D87"/>
+    <mergeCell ref="E85:F87"/>
+    <mergeCell ref="G85:H87"/>
+    <mergeCell ref="I85:J87"/>
+    <mergeCell ref="K85:L87"/>
+    <mergeCell ref="M85:O87"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="H81:J82"/>
+    <mergeCell ref="K81:O82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="C75:O76"/>
+    <mergeCell ref="C78:O79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:O80"/>
     <mergeCell ref="C71:D73"/>
     <mergeCell ref="E71:F73"/>
     <mergeCell ref="G71:H73"/>
@@ -4481,18 +7441,315 @@
     <mergeCell ref="K10:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C1" s="159" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="161"/>
+    </row>
+    <row r="2" spans="3:15">
+      <c r="C2" s="162"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="163"/>
+    </row>
+    <row r="3" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="166"/>
+    </row>
+    <row r="4" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C8" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="119"/>
+    </row>
+    <row r="9" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C9" s="189"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="190"/>
+    </row>
+    <row r="10" spans="3:15" ht="15.75" thickTop="1">
+      <c r="C10" s="191" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="192"/>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+    </row>
+    <row r="12" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C12" s="110"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" spans="3:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="3:15" ht="16.5" thickTop="1">
+      <c r="C14" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="174" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="175" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="176"/>
+      <c r="J14" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="64"/>
+      <c r="L14" s="175" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="178"/>
+    </row>
+    <row r="15" spans="3:15" ht="16.5" thickBot="1">
+      <c r="C15" s="179">
+        <v>18</v>
+      </c>
+      <c r="D15" s="180"/>
+      <c r="E15" s="181" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="182" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="183"/>
+      <c r="H15" s="184" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="185"/>
+      <c r="J15" s="182" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="183"/>
+      <c r="L15" s="186" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="188"/>
+    </row>
+    <row r="16" spans="3:15" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:G12"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="K11:O12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="C1:O3"/>
+    <mergeCell ref="C5:O6"/>
+    <mergeCell ref="C8:O9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:O10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>